--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6572" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Buoi1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buoi2" sheetId="2" r:id="rId2"/>
+    <sheet name="Buoi3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="93">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -201,26 +210,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Tham khảo nguồn tài liệu trên w3school, </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Cambria"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
       </rPr>
       <t>reactjs.org</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>, youtube</t>
     </r>
@@ -262,25 +271,22 @@
     <t>Số phiếu 1</t>
   </si>
   <si>
-    <t>Nhóm 13</t>
-  </si>
-  <si>
     <t>Thời gian - time: &lt; khung giờ 20:30 - 21:00&gt;&lt; ngày 25/03/23&gt;</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Người chủ trì cuộc họp – chair meeting:</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Chu Quốc Khánh</t>
     </r>
@@ -297,18 +303,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Tìm hiểu trên W3Schools, youtube, </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Cambria"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
       </rPr>
       <t>reacjs.org</t>
     </r>
@@ -316,18 +322,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Tìm hiểu tài liệu tại </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Cambria"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
       </rPr>
       <t>https://legacy.reactjs.org/docs/getting-started.html</t>
     </r>
@@ -336,70 +342,148 @@
     <t>Tiếp tục tìm hiểu về Reactjs</t>
   </si>
   <si>
-    <t>&lt;số lần&gt;</t>
+    <r>
+      <t>Người chủ trì cuộc họp – chair meeting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> Nguyễn Duy Đại</t>
+    </r>
+  </si>
+  <si>
+    <t>9h10-9h20</t>
+  </si>
+  <si>
+    <t>9h20-9h30</t>
+  </si>
+  <si>
+    <t>Kế hoạch của tuần sau?</t>
+  </si>
+  <si>
+    <t>Bắt đầu code phần giao diện trang chủ của website</t>
+  </si>
+  <si>
+    <t>Chia nội dung làm việc?</t>
+  </si>
+  <si>
+    <t>Mỗi người làm một phần, mọi người đều code toàn bộ đến cuối tuần tổng hợp lại và xem xét</t>
+  </si>
+  <si>
+    <t>Mọi người đều code toàn bộ đến cuối tuần tổng hợp lại và xem xét</t>
+  </si>
+  <si>
+    <t>Đang tiến hành</t>
+  </si>
+  <si>
+    <t>Bắt đầu code phần giao diện trang chủ của website, code phần nav cuả website…</t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21:00 - 21:30&gt;&lt; ngày 01/04/23&gt;</t>
+  </si>
+  <si>
+    <t>Đi đúng giờ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd-mm-yy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -407,7 +491,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,100 +506,82 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
-    <border/>
+  <borders count="21">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -526,23 +592,91 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -550,23 +684,30 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -574,158 +715,202 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -915,621 +1100,639 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H992"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="3" width="32.43"/>
-    <col customWidth="1" min="4" max="4" width="30.71"/>
-    <col customWidth="1" min="5" max="5" width="60.43"/>
-    <col customWidth="1" min="6" max="6" width="47.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.05" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.05" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.95" customHeight="1">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.05" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="29.95" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="13">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" ht="29.95" customHeight="1">
+      <c r="A20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="34">
-        <v>45004.0</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="18">
+        <v>45004</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="14" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="37" t="s">
+      <c r="C31" s="21">
+        <v>2</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="37" t="s">
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="37" t="s">
+      <c r="C33" s="21">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="37" t="s">
+      <c r="C34" s="21">
+        <v>2</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:6" ht="29.95" customHeight="1">
+      <c r="A35" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="14" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="37" t="s">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="37" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="37" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2476,559 +2679,559 @@
     <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E27"/>
+    <hyperlink ref="E27" r:id="rId1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.14"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
-    <col customWidth="1" min="3" max="3" width="24.86"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="5" width="42.0"/>
-    <col customWidth="1" min="6" max="6" width="92.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="92" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="26">
+        <v>45018</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="24">
+        <v>2</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="24">
+        <v>2</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="D33" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A35" s="52"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="49">
-        <v>45018.0</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3982,36 +4185,603 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="16">
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.25" customHeight="1" thickBot="1">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="13">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
+      <c r="A21" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="26">
+        <v>45024</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="60.9" thickBot="1">
+      <c r="A24" s="13">
+        <v>2</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="26">
+        <v>45024</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="13">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="13">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A30" s="13">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A31" s="13">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.05" customHeight="1">
+      <c r="A32" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A33" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.8" customHeight="1" thickBot="1">
+      <c r="A37" s="52"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C21"/>
-    <hyperlink r:id="rId2" ref="E21"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7E577-46EC-4B07-93B6-A3F941704BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6572" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
     <sheet name="Buoi2" sheetId="2" r:id="rId2"/>
     <sheet name="Buoi3" sheetId="3" r:id="rId3"/>
+    <sheet name="Buoi4" sheetId="5" r:id="rId4"/>
+    <sheet name="Buoi5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
     </ext>
@@ -26,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="109">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -355,12 +368,6 @@
     </r>
   </si>
   <si>
-    <t>9h10-9h20</t>
-  </si>
-  <si>
-    <t>9h20-9h30</t>
-  </si>
-  <si>
     <t>Kế hoạch của tuần sau?</t>
   </si>
   <si>
@@ -386,21 +393,92 @@
   </si>
   <si>
     <t>Đi đúng giờ</t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21:00 - 22:30&gt;&lt; ngày 08/04/23&gt;</t>
+  </si>
+  <si>
+    <t>Trao đổi về nội dung, kết quả của tuần vừa qua</t>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+  </si>
+  <si>
+    <t>22:00-22:30</t>
+  </si>
+  <si>
+    <t>21:10-21:20</t>
+  </si>
+  <si>
+    <t>21:20:21:30</t>
+  </si>
+  <si>
+    <t>Thảo luận về code của mỗi thành viên, chọn code giao diện của một người làm nền</t>
+  </si>
+  <si>
+    <t>Phần giao diện của CHU QUỐC KHÁNH và NGUYỄN DUY ĐẠI là tốt nhất</t>
+  </si>
+  <si>
+    <t>Chọn phần giao diện của CHU QUỐC KHÁNH làm nền</t>
+  </si>
+  <si>
+    <t>Đã Xong</t>
+  </si>
+  <si>
+    <t>Chia thành các mục menu nhỏ, tương ứng với mỗi thành viên một phần</t>
+  </si>
+  <si>
+    <t>Chia nhỏ menu, mỗi thành viên một phần rồi tổng hợp lại</t>
+  </si>
+  <si>
+    <t>Chia menu website thành các phần: Nam, Nữ, Trẻ Em, Giá Tốt, Canifaz.</t>
+  </si>
+  <si>
+    <t>Phạm Việt Đức - Nữ / Trần Văn Duy - Nam / Nguyễn Duy Đai - Giá tốt / Chu Quốc Khánh - Trẻ Em / Nguyễn Đức Anh - Canifaz</t>
+  </si>
+  <si>
+    <t>22/04/23</t>
+  </si>
+  <si>
+    <r>
+      <t>Người chủ trì cuộc họp – chair meeting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> Trần Văn Duy</t>
+    </r>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 20:30 - 22:30&gt;&lt; ngày 15/04/23&gt;</t>
+  </si>
+  <si>
+    <t>Viết báo báo cáo, check chéo nội dung nhóm 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,7 +550,7 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -481,9 +559,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -736,160 +819,231 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="88">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,14 +1260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H992"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -1124,65 +1278,65 @@
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.95" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="29.95" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1276,14 +1430,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1298,10 +1452,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1313,13 +1467,13 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="1">
@@ -1331,13 +1485,13 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1352,10 +1506,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1367,41 +1521,41 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -1410,10 +1564,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1428,14 +1582,14 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1443,29 +1597,29 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1483,7 +1637,7 @@
       <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1491,19 +1645,19 @@
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>45004</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1511,34 +1665,34 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
@@ -1562,16 +1716,16 @@
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1582,16 +1736,16 @@
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>2</v>
       </c>
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1602,16 +1756,16 @@
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1622,16 +1776,16 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1642,38 +1796,38 @@
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="21">
-        <v>1</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A35" s="43" t="s">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -1692,38 +1846,38 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
@@ -2679,11 +2833,6 @@
     <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C23:D23"/>
@@ -2699,9 +2848,14 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2709,14 +2863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
@@ -2728,64 +2882,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2819,8 +2973,8 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="60" t="s">
-        <v>92</v>
+      <c r="F8" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
@@ -2835,8 +2989,8 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="60" t="s">
-        <v>92</v>
+      <c r="F9" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
@@ -2851,8 +3005,8 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="60" t="s">
-        <v>92</v>
+      <c r="F10" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -2867,8 +3021,8 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="60" t="s">
-        <v>92</v>
+      <c r="F11" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
@@ -2883,19 +3037,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="60" t="s">
-        <v>92</v>
+      <c r="F12" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -2910,16 +3064,16 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2927,31 +3081,31 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
@@ -2960,10 +3114,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2975,27 +3129,27 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3019,30 +3173,30 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="20">
         <v>45018</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
@@ -3060,10 +3214,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="29">
+        <v>1</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="24">
@@ -3078,10 +3232,10 @@
       <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A26" s="1">
+      <c r="A26" s="29">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="24">
@@ -3096,10 +3250,10 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="1">
+      <c r="A27" s="29">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="24">
@@ -3114,10 +3268,10 @@
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="1">
+      <c r="A28" s="29">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24">
@@ -3132,10 +3286,10 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="1">
+      <c r="A29" s="29">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="24">
@@ -3150,74 +3304,74 @@
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4186,6 +4340,13 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A30:F30"/>
@@ -4195,17 +4356,10 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
@@ -4213,399 +4367,400 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" customWidth="1"/>
-    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="63.44140625" customWidth="1"/>
+    <col min="6" max="6" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="A3" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.25" customHeight="1" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="24.3" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="13">
+      <c r="F8" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="13">
+      <c r="F9" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="13">
+      <c r="F10" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A12" s="13">
+      <c r="F11" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="F12" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="42" t="s">
+      <c r="D16" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="56" t="s">
+    <row r="19" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="56" t="s">
+      <c r="C20" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
-        <v>2</v>
-      </c>
-      <c r="B20" s="56" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="F20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="20">
         <v>45024</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="60.9" thickBot="1">
-      <c r="A24" s="13">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="B24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="20">
         <v>45024</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="42" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="24">
@@ -4617,13 +4772,13 @@
       <c r="E27" s="24">
         <v>1</v>
       </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="13">
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="24">
@@ -4635,13 +4790,13 @@
       <c r="E28" s="24">
         <v>1</v>
       </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="13">
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="24">
@@ -4653,13 +4808,13 @@
       <c r="E29" s="24">
         <v>1</v>
       </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="13">
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="24">
@@ -4671,13 +4826,13 @@
       <c r="E30" s="24">
         <v>1</v>
       </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A31" s="13">
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="24">
@@ -4689,88 +4844,80 @@
       <c r="E31" s="24">
         <v>1</v>
       </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.05" customHeight="1">
-      <c r="A32" s="43" t="s">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A33" s="46" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A33" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51" t="s">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A37" s="23"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" customHeight="1" thickBot="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
@@ -4781,7 +4928,1115 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0209842-88BB-421C-8DA7-EDD466044E24}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1">
+      <c r="A13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" ht="47.4" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="82"/>
+    </row>
+    <row r="17" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1">
+      <c r="A17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="87" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60.6" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" customHeight="1" thickBot="1">
+      <c r="A21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="98.4" customHeight="1" thickBot="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A24" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322CC893-FA2B-4AE2-842C-059B6896E8F1}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="84.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" customHeight="1" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
+      <c r="A13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" ht="62.4" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" ht="84.6" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" ht="80.400000000000006" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="82"/>
+    </row>
+    <row r="17" spans="1:6" ht="39" customHeight="1" thickBot="1">
+      <c r="A17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="69" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="117" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="106.8" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:6" ht="51" customHeight="1" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="285.60000000000002" thickBot="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A24" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+    </row>
+    <row r="25" spans="1:6" ht="101.4" customHeight="1" thickBot="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+    </row>
+    <row r="32" spans="1:6" ht="27.6" customHeight="1" thickBot="1">
+      <c r="A32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+    </row>
+    <row r="33" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="38.4" customHeight="1" thickBot="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7E577-46EC-4B07-93B6-A3F941704BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6572" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
     <sheet name="Buoi2" sheetId="2" r:id="rId2"/>
     <sheet name="Buoi3" sheetId="3" r:id="rId3"/>
-    <sheet name="Buoi4" sheetId="5" r:id="rId4"/>
-    <sheet name="Buoi5" sheetId="6" r:id="rId5"/>
+    <sheet name="Buoi4" sheetId="4" r:id="rId4"/>
+    <sheet name="Buoi5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
     </ext>
@@ -39,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="117">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -368,6 +357,12 @@
     </r>
   </si>
   <si>
+    <t>9h10-9h20</t>
+  </si>
+  <si>
+    <t>9h20-9h30</t>
+  </si>
+  <si>
     <t>Kế hoạch của tuần sau?</t>
   </si>
   <si>
@@ -395,9 +390,42 @@
     <t>Đi đúng giờ</t>
   </si>
   <si>
+    <t>Tiếp tục phần công việc mỗi người được giao</t>
+  </si>
+  <si>
+    <t>Viết báo cáo</t>
+  </si>
+  <si>
+    <t>Viết các nội dung báo cáo làm việc, nội dung báo cáo</t>
+  </si>
+  <si>
+    <t>Tiếp tục code phần giao diện được giao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành phần báo cáo </t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 20:30 - 21:00&gt;&lt; ngày 15/04/23&gt;</t>
+  </si>
+  <si>
+    <t>Người chủ trì cuộc họp – chair meeting: Trần Văn Duy</t>
+  </si>
+  <si>
+    <t>8h30-8h45</t>
+  </si>
+  <si>
+    <t>8h45-9h</t>
+  </si>
+  <si>
+    <t>Trao đổi về vấn đề của tuần code của tuần trước</t>
+  </si>
+  <si>
     <t>Thời gian - time: &lt; khung giờ 21:00 - 22:30&gt;&lt; ngày 08/04/23&gt;</t>
   </si>
   <si>
+    <t>Người chủ trì cuộc họp – chair meeting: Nguyễn Duy Đại</t>
+  </si>
+  <si>
     <t>Trao đổi về nội dung, kết quả của tuần vừa qua</t>
   </si>
   <si>
@@ -407,12 +435,6 @@
     <t>22:00-22:30</t>
   </si>
   <si>
-    <t>21:10-21:20</t>
-  </si>
-  <si>
-    <t>21:20:21:30</t>
-  </si>
-  <si>
     <t>Thảo luận về code của mỗi thành viên, chọn code giao diện của một người làm nền</t>
   </si>
   <si>
@@ -434,51 +456,25 @@
     <t>Chia menu website thành các phần: Nam, Nữ, Trẻ Em, Giá Tốt, Canifaz.</t>
   </si>
   <si>
+    <t>22/04/23</t>
+  </si>
+  <si>
     <t>Phạm Việt Đức - Nữ / Trần Văn Duy - Nam / Nguyễn Duy Đai - Giá tốt / Chu Quốc Khánh - Trẻ Em / Nguyễn Đức Anh - Canifaz</t>
-  </si>
-  <si>
-    <t>22/04/23</t>
-  </si>
-  <si>
-    <r>
-      <t>Người chủ trì cuộc họp – chair meeting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-      </rPr>
-      <t xml:space="preserve"> Trần Văn Duy</t>
-    </r>
-  </si>
-  <si>
-    <t>Thời gian - time: &lt; khung giờ 20:30 - 22:30&gt;&lt; ngày 15/04/23&gt;</t>
-  </si>
-  <si>
-    <t>Viết báo báo cáo, check chéo nội dung nhóm 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,7 +546,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -559,14 +555,9 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -819,231 +810,208 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="85">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1260,14 +1228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H992"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -1278,65 +1246,65 @@
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="15.05" customHeight="1">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.05" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.95" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.05" customHeight="1">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:8" ht="29.95" customHeight="1">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1430,14 +1398,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1452,10 +1420,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1467,13 +1435,13 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="1">
@@ -1485,13 +1453,13 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1506,10 +1474,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1521,41 +1489,41 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A19" s="1">
+      <c r="A19" s="13">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="F19" s="61"/>
+    </row>
+    <row r="20" spans="1:6" ht="29.95" customHeight="1">
+      <c r="A20" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -1564,10 +1532,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1582,14 +1550,14 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="61"/>
+      <c r="E22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1597,29 +1565,29 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="61"/>
+      <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1637,7 +1605,7 @@
       <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1645,19 +1613,19 @@
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="18">
         <v>45004</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1665,34 +1633,34 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
@@ -1716,16 +1684,16 @@
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="17">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1736,16 +1704,16 @@
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="21">
         <v>2</v>
       </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1756,16 +1724,16 @@
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="17">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1776,16 +1744,16 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="21">
         <v>2</v>
       </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17" t="s">
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1796,38 +1764,38 @@
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="21">
         <v>2</v>
       </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="39" t="s">
+    <row r="35" spans="1:6" ht="29.95" customHeight="1">
+      <c r="A35" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -1846,38 +1814,38 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="17" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="17" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
@@ -2855,7 +2823,7 @@
     <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2863,14 +2831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
@@ -2882,64 +2850,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2973,8 +2941,8 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="27" t="s">
-        <v>90</v>
+      <c r="F8" s="58" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
@@ -2989,8 +2957,8 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="27" t="s">
-        <v>90</v>
+      <c r="F9" s="58" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
@@ -3005,8 +2973,8 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="27" t="s">
-        <v>90</v>
+      <c r="F10" s="58" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -3021,8 +2989,8 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="27" t="s">
-        <v>90</v>
+      <c r="F11" s="58" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
@@ -3037,19 +3005,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="27" t="s">
-        <v>90</v>
+      <c r="F12" s="58" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3064,16 +3032,16 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3081,31 +3049,31 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
@@ -3114,10 +3082,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3129,27 +3097,27 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3173,30 +3141,30 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="26">
         <v>45018</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="16"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
@@ -3214,10 +3182,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="29">
-        <v>1</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="24">
@@ -3232,10 +3200,10 @@
       <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A26" s="29">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="24">
@@ -3250,10 +3218,10 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="29">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="24">
@@ -3268,10 +3236,10 @@
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="29">
+      <c r="A28" s="1">
         <v>4</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="24">
@@ -3286,10 +3254,10 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="29">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="24">
@@ -3304,74 +3272,74 @@
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="28" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="33"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="33"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="33"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4358,8 +4326,8 @@
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
@@ -4367,400 +4335,399 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.44140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="55" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.3" customHeight="1" thickBot="1">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" ht="24.25" customHeight="1" thickBot="1">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A9" s="1">
+      <c r="F8" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A10" s="1">
+      <c r="F9" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A11" s="1">
+      <c r="F10" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
-      <c r="A12" s="1">
+      <c r="F11" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="F12" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="65"/>
+      <c r="D15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="82"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A16" s="1">
+      <c r="A16" s="13">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="36" t="s">
+      <c r="D16" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" thickBot="1">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.8" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="66" t="s">
+    <row r="19" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>87</v>
+      <c r="F20" s="54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.6" thickBot="1">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.8" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="26">
         <v>45024</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A24" s="1">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="60.9" thickBot="1">
+      <c r="A24" s="13">
         <v>2</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="B24" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="26">
         <v>45024</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="36" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="24">
@@ -4772,13 +4739,13 @@
       <c r="E27" s="24">
         <v>1</v>
       </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A28" s="1">
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="13">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="24">
@@ -4790,13 +4757,13 @@
       <c r="E28" s="24">
         <v>1</v>
       </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A29" s="1">
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="13">
         <v>3</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="24">
@@ -4808,13 +4775,13 @@
       <c r="E29" s="24">
         <v>1</v>
       </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A30" s="1">
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A30" s="13">
         <v>4</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="24">
@@ -4826,13 +4793,13 @@
       <c r="E30" s="24">
         <v>1</v>
       </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="1">
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A31" s="13">
         <v>5</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="24">
@@ -4844,77 +4811,77 @@
       <c r="E31" s="24">
         <v>1</v>
       </c>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="39" t="s">
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.05" customHeight="1">
+      <c r="A32" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A33" s="42" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A33" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="28" t="s">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:6" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="28" t="s">
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.8" customHeight="1" thickBot="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="1:6" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4938,29 +4905,576 @@
     <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0209842-88BB-421C-8DA7-EDD466044E24}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05"/>
+  <cols>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.05" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.05" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.05" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.05" customHeight="1">
+      <c r="A5" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.15" customHeight="1" thickBot="1">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
+      <c r="A11" s="13">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.2" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.6" customHeight="1" thickBot="1">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.1" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="76.599999999999994" customHeight="1" thickBot="1">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="85.75" customHeight="1" thickBot="1">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.25" customHeight="1" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="113.25" customHeight="1" thickBot="1">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="13">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="13">
+        <v>3</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="13">
+        <v>4</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A30" s="13">
+        <v>5</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.05" customHeight="1">
+      <c r="A32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -4970,1059 +5484,536 @@
       <c r="E1" s="72"/>
       <c r="F1" s="73"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="45" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A6" s="68" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A9" s="1">
+      <c r="F8" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A10" s="1">
+      <c r="F9" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A11" s="1">
+      <c r="F10" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A12" s="1">
+      <c r="F11" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="F12" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:6" ht="47.4" customHeight="1" thickBot="1">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="1:6" ht="75.95" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="F14" s="61"/>
+    </row>
+    <row r="15" spans="1:6" ht="72.650000000000006" customHeight="1" thickBot="1">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A16" s="1">
+      <c r="D15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="1:6" ht="41.9" customHeight="1" thickBot="1">
+      <c r="A16" s="13">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="82"/>
-    </row>
-    <row r="17" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1">
-      <c r="A17" s="36" t="s">
+      <c r="D16" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="87" customHeight="1" thickBot="1">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.35" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60.6" customHeight="1" thickBot="1">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="57" customHeight="1" thickBot="1">
-      <c r="A20" s="1">
+    <row r="19" spans="1:6" ht="38" customHeight="1" thickBot="1">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33.4" customHeight="1" thickBot="1">
+      <c r="A20" s="13">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A21" s="36" t="s">
+      <c r="B20" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.6" thickBot="1">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="75.95" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="98.4" customHeight="1" thickBot="1">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A24" s="36" t="s">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="26">
+        <v>45038</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="55.65" customHeight="1" thickBot="1">
+      <c r="A24" s="13">
+        <v>2</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="26">
+        <v>45031</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-    </row>
-    <row r="25" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A27" s="1">
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A28" s="13">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A28" s="1">
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A29" s="13">
         <v>3</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A29" s="1">
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A30" s="13">
         <v>4</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A30" s="1">
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A31" s="13">
         <v>5</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="39" t="s">
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A32" s="42" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+    </row>
+    <row r="34" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="28" t="s">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="45.85" thickBot="1">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="28" t="s">
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.8" thickBot="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322CC893-FA2B-4AE2-842C-059B6896E8F1}">
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="84.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-    </row>
-    <row r="7" spans="1:6" ht="41.4" customHeight="1" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
-      <c r="A13" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:6" ht="62.4" customHeight="1" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="1:6" ht="84.6" customHeight="1" thickBot="1">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="1:6" ht="80.400000000000006" customHeight="1" thickBot="1">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="82"/>
-    </row>
-    <row r="17" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="69" customHeight="1" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="117" customHeight="1" thickBot="1">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="106.8" customHeight="1" thickBot="1">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-    </row>
-    <row r="22" spans="1:6" ht="51" customHeight="1" thickBot="1">
-      <c r="A22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="285.60000000000002" thickBot="1">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A24" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-    </row>
-    <row r="25" spans="1:6" ht="101.4" customHeight="1" thickBot="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A30" s="1">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-    </row>
-    <row r="32" spans="1:6" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A32" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-    </row>
-    <row r="33" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="38.4" customHeight="1" thickBot="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -6037,6 +6028,5 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E84C7B7-3325-4891-8EDA-2E937C4DB9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6572" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="117">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -465,7 +466,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
@@ -810,8 +811,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="76">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,26 +840,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -881,16 +870,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -901,7 +881,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -935,14 +914,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,11 +936,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -975,43 +978,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,14 +1204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H992"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F40"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -1246,65 +1222,65 @@
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.95" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:8" ht="29.95" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1398,14 +1374,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1420,10 +1396,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1435,13 +1411,13 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="1">
@@ -1453,13 +1429,13 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1474,10 +1450,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1489,41 +1465,41 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -1532,10 +1508,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1550,14 +1526,14 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1565,29 +1541,29 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="55"/>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1605,7 +1581,7 @@
       <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1613,19 +1589,19 @@
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>45004</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1633,34 +1609,34 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
@@ -1684,16 +1660,16 @@
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1704,16 +1680,16 @@
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>2</v>
       </c>
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1724,16 +1700,16 @@
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1744,16 +1720,16 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1764,38 +1740,38 @@
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="21">
-        <v>1</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -1814,38 +1790,32 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17">
+        <v>2</v>
+      </c>
+      <c r="D38" s="17">
+        <v>2</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
@@ -2801,6 +2771,11 @@
     <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C23:D23"/>
@@ -2816,14 +2791,9 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2831,14 +2801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
@@ -2850,64 +2820,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2941,7 +2911,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2957,7 +2927,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2973,7 +2943,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2989,7 +2959,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3005,19 +2975,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3032,16 +3002,16 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3049,31 +3019,31 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
@@ -3082,10 +3052,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3097,27 +3067,27 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3141,30 +3111,30 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="20">
         <v>45018</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
@@ -3188,16 +3158,16 @@
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="17">
         <v>2</v>
       </c>
-      <c r="D25" s="24">
-        <v>1</v>
-      </c>
-      <c r="E25" s="24">
-        <v>1</v>
-      </c>
-      <c r="F25" s="24"/>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
       <c r="A26" s="1">
@@ -3206,16 +3176,16 @@
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
-        <v>1</v>
-      </c>
-      <c r="F26" s="24"/>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
       <c r="A27" s="1">
@@ -3224,16 +3194,16 @@
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="17">
         <v>2</v>
       </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="A28" s="1">
@@ -3242,16 +3212,16 @@
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="1">
@@ -3260,36 +3230,36 @@
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
@@ -3308,38 +3278,34 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40">
+        <v>1</v>
+      </c>
+      <c r="C33" s="41">
+        <v>2</v>
+      </c>
+      <c r="D33" s="41">
+        <v>1</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4308,13 +4274,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A30:F30"/>
@@ -4324,10 +4283,17 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
@@ -4335,14 +4301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:F37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
@@ -4352,539 +4318,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="78" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.25" customHeight="1" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="24.3" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="59" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.6" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="20">
         <v>45024</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="60.9" thickBot="1">
-      <c r="A24" s="13">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="60.6" thickBot="1">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="20">
         <v>45024</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="59" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="13">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="13">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="13">
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A31" s="13">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.05" customHeight="1">
-      <c r="A32" s="62" t="s">
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A33" s="65" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A33" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" customHeight="1" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41">
+        <v>1</v>
+      </c>
+      <c r="D35" s="48">
+        <v>3</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
@@ -4895,30 +4863,22 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
@@ -4926,531 +4886,506 @@
     <col min="6" max="6" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="30.15" customHeight="1" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A10" s="13">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.2" customHeight="1" thickBot="1">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.6" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.65" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="49.1" customHeight="1" thickBot="1">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.05" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="76.599999999999994" customHeight="1" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" ht="76.650000000000006" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="85.75" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:6" ht="85.8" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" ht="22.25" customHeight="1" thickBot="1">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.2" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="13">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="13">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="13">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="13">
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="13" t="s">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A32" s="42" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5458,14 +5393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
@@ -5475,544 +5410,539 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="78" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-    </row>
-    <row r="7" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6" ht="75.95" thickBot="1">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.6" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:6" ht="72.650000000000006" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" ht="72.599999999999994" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="82"/>
-    </row>
-    <row r="16" spans="1:6" ht="41.9" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="E15" s="57"/>
+      <c r="F15" s="74"/>
+    </row>
+    <row r="16" spans="1:6" ht="41.85" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="59" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.35" customHeight="1" thickBot="1">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38" customHeight="1" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" ht="37.950000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33.4" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:6" ht="33.450000000000003" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
+      <c r="A21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" ht="75.95" thickBot="1">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="20">
         <v>45038</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="55.65" customHeight="1" thickBot="1">
-      <c r="A24" s="13">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="20">
         <v>45031</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="59" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A28" s="13">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A29" s="13">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A30" s="13">
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A31" s="13">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24"/>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="65" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-    </row>
-    <row r="34" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41">
+        <v>2</v>
+      </c>
+      <c r="D35" s="48">
+        <v>2</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -6020,12 +5950,11 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E84C7B7-3325-4891-8EDA-2E937C4DB9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05791B59-A0D8-46E2-9B5A-989B44EAEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,38 +936,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -978,16 +951,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H992"/>
+  <dimension ref="A1:H990"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1223,14 +1223,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="59" t="s">
@@ -1273,14 +1273,14 @@
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1374,14 +1374,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1396,10 +1396,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1432,10 +1432,10 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1450,10 +1450,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1468,10 +1468,10 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -1486,19 +1486,19 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1508,10 +1508,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1526,10 +1526,10 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1544,10 +1544,10 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1556,14 +1556,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1626,14 +1626,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="16"/>
@@ -1754,24 +1754,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -1801,22 +1801,8 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
@@ -2767,15 +2753,8 @@
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C23:D23"/>
@@ -2791,6 +2770,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2802,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2820,14 +2804,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
       <c r="A2" s="59" t="s">
@@ -2870,14 +2854,14 @@
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2980,14 +2964,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3002,10 +2986,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3032,17 +3016,17 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -3052,10 +3036,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3073,21 +3057,21 @@
       <c r="C19" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3124,14 +3108,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="16"/>
@@ -3242,24 +3226,24 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
@@ -3291,22 +3275,8 @@
       <c r="E33" s="41"/>
       <c r="F33" s="42"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4270,10 +4240,15 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A30:F30"/>
@@ -4283,13 +4258,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4302,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A36" sqref="A36:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4318,17 +4286,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="60"/>
@@ -4338,7 +4306,7 @@
       <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="60"/>
@@ -4358,7 +4326,7 @@
       <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="60"/>
@@ -4368,14 +4336,14 @@
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -4478,14 +4446,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -4500,10 +4468,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
       <c r="A15" s="1">
@@ -4518,8 +4486,8 @@
       <c r="D15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -4534,17 +4502,17 @@
       <c r="D16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" thickBot="1">
@@ -4554,10 +4522,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4572,10 +4540,10 @@
       <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="45" t="s">
         <v>85</v>
       </c>
@@ -4590,10 +4558,10 @@
       <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="45" t="s">
         <v>88</v>
       </c>
@@ -4602,14 +4570,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" thickBot="1">
       <c r="A22" s="7" t="s">
@@ -4662,14 +4630,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
@@ -4780,24 +4748,24 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
@@ -4827,32 +4795,8 @@
       <c r="E35" s="41"/>
       <c r="F35" s="42"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
@@ -4863,6 +4807,14 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4870,10 +4822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5363,30 +5315,6 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5394,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5410,17 +5338,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="60"/>
@@ -5430,7 +5358,7 @@
       <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="60"/>
@@ -5450,7 +5378,7 @@
       <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="60"/>
@@ -5460,14 +5388,14 @@
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -5570,14 +5498,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -5592,10 +5520,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="72.599999999999994" customHeight="1" thickBot="1">
       <c r="A15" s="1">
@@ -5610,8 +5538,8 @@
       <c r="D15" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" ht="41.85" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -5626,17 +5554,17 @@
       <c r="D16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
@@ -5646,10 +5574,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -5664,10 +5592,10 @@
       <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="45" t="s">
         <v>93</v>
       </c>
@@ -5682,10 +5610,10 @@
       <c r="B20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="45" t="s">
         <v>95</v>
       </c>
@@ -5694,14 +5622,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickBot="1">
       <c r="A22" s="7" t="s">
@@ -5754,14 +5682,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
@@ -5872,24 +5800,24 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
@@ -5919,30 +5847,8 @@
       <c r="E35" s="41"/>
       <c r="F35" s="42"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -5955,6 +5861,12 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05791B59-A0D8-46E2-9B5A-989B44EAEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF4E18-3A23-46FD-B51B-1625B26C321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
     <sheet name="Buoi2" sheetId="2" r:id="rId2"/>
     <sheet name="Buoi3" sheetId="3" r:id="rId3"/>
-    <sheet name="Buoi4" sheetId="4" r:id="rId4"/>
+    <sheet name="Buoi4" sheetId="7" r:id="rId4"/>
     <sheet name="Buoi5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="115">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -412,30 +412,12 @@
     <t>Người chủ trì cuộc họp – chair meeting: Trần Văn Duy</t>
   </si>
   <si>
-    <t>8h30-8h45</t>
-  </si>
-  <si>
-    <t>8h45-9h</t>
-  </si>
-  <si>
     <t>Trao đổi về vấn đề của tuần code của tuần trước</t>
   </si>
   <si>
-    <t>Thời gian - time: &lt; khung giờ 21:00 - 22:30&gt;&lt; ngày 08/04/23&gt;</t>
-  </si>
-  <si>
     <t>Người chủ trì cuộc họp – chair meeting: Nguyễn Duy Đại</t>
   </si>
   <si>
-    <t>Trao đổi về nội dung, kết quả của tuần vừa qua</t>
-  </si>
-  <si>
-    <t>21:00-22:00</t>
-  </si>
-  <si>
-    <t>22:00-22:30</t>
-  </si>
-  <si>
     <t>Thảo luận về code của mỗi thành viên, chọn code giao diện của một người làm nền</t>
   </si>
   <si>
@@ -445,9 +427,6 @@
     <t>Chọn phần giao diện của CHU QUỐC KHÁNH làm nền</t>
   </si>
   <si>
-    <t>Đã Xong</t>
-  </si>
-  <si>
     <t>Chia thành các mục menu nhỏ, tương ứng với mỗi thành viên một phần</t>
   </si>
   <si>
@@ -457,10 +436,25 @@
     <t>Chia menu website thành các phần: Nam, Nữ, Trẻ Em, Giá Tốt, Canifaz.</t>
   </si>
   <si>
-    <t>22/04/23</t>
-  </si>
-  <si>
     <t>Phạm Việt Đức - Nữ / Trần Văn Duy - Nam / Nguyễn Duy Đai - Giá tốt / Chu Quốc Khánh - Trẻ Em / Nguyễn Đức Anh - Canifaz</t>
+  </si>
+  <si>
+    <t>20:30-20:45</t>
+  </si>
+  <si>
+    <t>20:45-21:00</t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21:00 - 22:00&gt;&lt; ngày 08/04/23&gt;</t>
+  </si>
+  <si>
+    <t>21:00-21:30</t>
+  </si>
+  <si>
+    <t>21:30-22:00</t>
+  </si>
+  <si>
+    <t>22/04/2023</t>
   </si>
 </sst>
 </file>
@@ -471,11 +465,18 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,7 +562,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,8 +581,20 @@
         <bgColor rgb="FF8496B0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8496B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -807,187 +820,395 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,64 +1444,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1374,14 +1595,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1396,10 +1617,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1432,10 +1653,10 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1450,10 +1671,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1468,10 +1689,10 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -1486,19 +1707,19 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1508,10 +1729,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1526,10 +1747,10 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1544,10 +1765,10 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1556,14 +1777,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1626,14 +1847,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="16"/>
@@ -1754,24 +1975,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -2755,6 +2976,11 @@
     <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C23:D23"/>
@@ -2770,11 +2996,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2804,64 +3025,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2895,7 +3116,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2911,7 +3132,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2927,7 +3148,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2943,7 +3164,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2959,19 +3180,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -2986,10 +3207,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3016,17 +3237,17 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -3036,10 +3257,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3054,24 +3275,24 @@
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3108,14 +3329,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="16"/>
@@ -3226,24 +3447,24 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
@@ -3262,18 +3483,18 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40">
-        <v>1</v>
-      </c>
-      <c r="C33" s="41">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22">
         <v>2</v>
       </c>
-      <c r="D33" s="41">
-        <v>1</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="22">
+        <v>1</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4242,13 +4463,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A30:F30"/>
@@ -4258,6 +4472,13 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4286,64 +4507,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -4377,7 +4598,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4393,7 +4614,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4409,7 +4630,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4425,7 +4646,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4441,19 +4662,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -4468,10 +4689,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
       <c r="A15" s="1">
@@ -4483,11 +4704,11 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -4499,20 +4720,20 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" thickBot="1">
@@ -4522,10 +4743,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4537,17 +4758,17 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="45" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4555,29 +4776,29 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" thickBot="1">
       <c r="A22" s="7" t="s">
@@ -4601,7 +4822,7 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="20">
@@ -4617,7 +4838,7 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="20">
@@ -4630,14 +4851,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
@@ -4748,24 +4969,24 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
@@ -4784,19 +5005,27 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41">
-        <v>1</v>
-      </c>
-      <c r="D35" s="48">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27">
         <v>3</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
@@ -4807,516 +5036,546 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999DD5F4-7424-45B7-9472-FA938226080A}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A8" s="55">
+        <v>1</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A9" s="55">
+        <v>2</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A10" s="55">
+        <v>3</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A11" s="55">
+        <v>4</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A12" s="55">
+        <v>5</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A13" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6" ht="75.599999999999994" thickBot="1">
+      <c r="A14" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:6" ht="135.6" thickBot="1">
+      <c r="A15" s="55">
+        <v>1</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="1:6" ht="90.6" thickBot="1">
+      <c r="A16" s="55">
+        <v>2</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" customHeight="1" thickBot="1">
+      <c r="A17" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" spans="1:6" ht="120.6" thickBot="1">
+      <c r="A18" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="195.6" thickBot="1">
+      <c r="A19" s="55">
+        <v>1</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="D19" s="84"/>
+      <c r="E19" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="150.6" thickBot="1">
+      <c r="A20" s="55">
+        <v>2</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A21" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+    </row>
+    <row r="22" spans="1:6" ht="75.599999999999994" thickBot="1">
+      <c r="A22" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="58"/>
+    </row>
+    <row r="23" spans="1:6" ht="285.60000000000002" thickBot="1">
+      <c r="A23" s="55">
+        <v>1</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A24" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+    </row>
+    <row r="25" spans="1:6" ht="135.6" thickBot="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A26" s="55">
+        <v>1</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="63">
+        <v>1</v>
+      </c>
+      <c r="D26" s="63">
+        <v>1</v>
+      </c>
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="63"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A27" s="55">
+        <v>2</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="63">
+        <v>1</v>
+      </c>
+      <c r="D27" s="63">
+        <v>1</v>
+      </c>
+      <c r="E27" s="63">
+        <v>1</v>
+      </c>
+      <c r="F27" s="63"/>
+    </row>
+    <row r="28" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A28" s="55">
         <v>3</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="26" t="s">
+      <c r="B28" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="63">
+        <v>1</v>
+      </c>
+      <c r="D28" s="63">
+        <v>1</v>
+      </c>
+      <c r="E28" s="63">
+        <v>1</v>
+      </c>
+      <c r="F28" s="63"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A29" s="55">
+        <v>4</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="63">
+        <v>1</v>
+      </c>
+      <c r="D29" s="63">
+        <v>1</v>
+      </c>
+      <c r="E29" s="63">
+        <v>1</v>
+      </c>
+      <c r="F29" s="63"/>
+    </row>
+    <row r="30" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A30" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.15" customHeight="1" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A9" s="1">
+      <c r="B30" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="63">
+        <v>1</v>
+      </c>
+      <c r="D30" s="63">
+        <v>1</v>
+      </c>
+      <c r="E30" s="63">
+        <v>1</v>
+      </c>
+      <c r="F30" s="63"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A31" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+    </row>
+    <row r="32" spans="1:6" ht="26.4" customHeight="1" thickBot="1">
+      <c r="A32" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+    </row>
+    <row r="33" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="1:6" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="63">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.65" customHeight="1" thickBot="1">
-      <c r="A16" s="1">
+      <c r="D34" s="63">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="49.05" customHeight="1" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="76.650000000000006" customHeight="1" thickBot="1">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="85.8" customHeight="1" thickBot="1">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A26" s="16">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="17">
-        <v>1</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="17">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="17">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A30" s="1">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="17">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="39"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
-        <v>2</v>
-      </c>
-      <c r="D34" s="5">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5324,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5338,64 +5597,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -5429,7 +5688,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5445,7 +5704,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5461,7 +5720,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5477,7 +5736,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5493,19 +5752,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -5520,26 +5779,26 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="72.599999999999994" customHeight="1" thickBot="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="41.85" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -5551,20 +5810,20 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
@@ -5574,10 +5833,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -5589,17 +5848,17 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="45" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5607,29 +5866,29 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickBot="1">
       <c r="A22" s="7" t="s">
@@ -5653,7 +5912,7 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="20">
@@ -5669,7 +5928,7 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="20">
@@ -5682,14 +5941,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
@@ -5800,24 +6059,24 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
@@ -5836,19 +6095,25 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22">
         <v>2</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="27">
         <v>2</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -5861,12 +6126,6 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF4E18-3A23-46FD-B51B-1625B26C321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF55795-9E89-4BCC-8D82-BCE37EB0EBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
     <sheet name="Buoi2" sheetId="2" r:id="rId2"/>
     <sheet name="Buoi3" sheetId="3" r:id="rId3"/>
-    <sheet name="Buoi4" sheetId="7" r:id="rId4"/>
+    <sheet name="Buoi4" sheetId="4" r:id="rId4"/>
     <sheet name="Buoi5" sheetId="5" r:id="rId5"/>
+    <sheet name="Buoi6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="126">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -412,12 +413,30 @@
     <t>Người chủ trì cuộc họp – chair meeting: Trần Văn Duy</t>
   </si>
   <si>
+    <t>8h30-8h45</t>
+  </si>
+  <si>
+    <t>8h45-9h</t>
+  </si>
+  <si>
     <t>Trao đổi về vấn đề của tuần code của tuần trước</t>
   </si>
   <si>
+    <t>Thời gian - time: &lt; khung giờ 21:00 - 22:30&gt;&lt; ngày 08/04/23&gt;</t>
+  </si>
+  <si>
     <t>Người chủ trì cuộc họp – chair meeting: Nguyễn Duy Đại</t>
   </si>
   <si>
+    <t>Trao đổi về nội dung, kết quả của tuần vừa qua</t>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+  </si>
+  <si>
+    <t>22:00-22:30</t>
+  </si>
+  <si>
     <t>Thảo luận về code của mỗi thành viên, chọn code giao diện của một người làm nền</t>
   </si>
   <si>
@@ -427,6 +446,9 @@
     <t>Chọn phần giao diện của CHU QUỐC KHÁNH làm nền</t>
   </si>
   <si>
+    <t>Đã Xong</t>
+  </si>
+  <si>
     <t>Chia thành các mục menu nhỏ, tương ứng với mỗi thành viên một phần</t>
   </si>
   <si>
@@ -436,25 +458,37 @@
     <t>Chia menu website thành các phần: Nam, Nữ, Trẻ Em, Giá Tốt, Canifaz.</t>
   </si>
   <si>
+    <t>22/04/23</t>
+  </si>
+  <si>
     <t>Phạm Việt Đức - Nữ / Trần Văn Duy - Nam / Nguyễn Duy Đai - Giá tốt / Chu Quốc Khánh - Trẻ Em / Nguyễn Đức Anh - Canifaz</t>
   </si>
   <si>
-    <t>20:30-20:45</t>
-  </si>
-  <si>
-    <t>20:45-21:00</t>
-  </si>
-  <si>
-    <t>Thời gian - time: &lt; khung giờ 21:00 - 22:00&gt;&lt; ngày 08/04/23&gt;</t>
-  </si>
-  <si>
-    <t>21:00-21:30</t>
-  </si>
-  <si>
-    <t>21:30-22:00</t>
-  </si>
-  <si>
-    <t>22/04/2023</t>
+    <t>Thời gian - time: &lt; khung giờ 21h30 - 22:00 &gt;&lt; ngày 22/04/23&gt;</t>
+  </si>
+  <si>
+    <t>Người chủ trì cuộc họp – chair meeting: Phạm Việt Đức</t>
+  </si>
+  <si>
+    <t>9h30-9h45</t>
+  </si>
+  <si>
+    <t>9h45-10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lỗi khi clone code, pull code </t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hoàn thiện 2 phần menu nhỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Chu Quốc Khánh</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thiện công việc của tuần trước, hoàn thành phần trang menu của mỗi thành viên</t>
   </si>
 </sst>
 </file>
@@ -465,18 +499,11 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,7 +589,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,20 +608,8 @@
         <bgColor rgb="FF8496B0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFACB9CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8496B0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -820,396 +835,197 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H990"/>
+  <dimension ref="A1:H992"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B38" sqref="B38:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1444,64 +1260,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1595,14 +1411,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1617,10 +1433,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1653,10 +1469,10 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1671,10 +1487,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1689,10 +1505,10 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -1707,19 +1523,19 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1729,10 +1545,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1747,10 +1563,10 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1765,10 +1581,10 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1777,14 +1593,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1847,14 +1663,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="16"/>
@@ -1975,24 +1791,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -2013,17 +1829,37 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="17">
-        <v>2</v>
-      </c>
-      <c r="D38" s="17">
-        <v>2</v>
+      <c r="C38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
@@ -2974,13 +2810,10 @@
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C23:D23"/>
@@ -2996,6 +2829,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3007,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F998"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3025,64 +2863,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -3116,7 +2954,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3132,7 +2970,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3148,7 +2986,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3164,7 +3002,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3180,19 +3018,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3207,10 +3045,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3237,17 +3075,17 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -3257,10 +3095,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3275,24 +3113,24 @@
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3329,14 +3167,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="16"/>
@@ -3447,24 +3285,24 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
@@ -3483,21 +3321,39 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21">
-        <v>1</v>
-      </c>
-      <c r="C33" s="22">
-        <v>2</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A35" s="42"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4461,8 +4317,17 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A30:F30"/>
@@ -4472,13 +4337,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4491,10 +4349,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:F37"/>
+      <selection sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4507,64 +4365,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -4598,7 +4456,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4614,7 +4472,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4630,7 +4488,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4646,7 +4504,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4662,19 +4520,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -4689,10 +4547,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
       <c r="A15" s="1">
@@ -4704,11 +4562,11 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -4720,20 +4578,20 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" thickBot="1">
@@ -4743,10 +4601,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4758,17 +4616,17 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="45" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4776,29 +4634,29 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="54"/>
+      <c r="E20" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" thickBot="1">
       <c r="A22" s="7" t="s">
@@ -4822,7 +4680,7 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="47" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="20">
@@ -4838,7 +4696,7 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="45" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="20">
@@ -4851,14 +4709,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
@@ -4969,24 +4827,24 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
@@ -5005,27 +4863,41 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27">
-        <v>3</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
@@ -5036,555 +4908,558 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999DD5F4-7424-45B7-9472-FA938226080A}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="70.44140625" customWidth="1"/>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="68" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.15" customHeight="1" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.65" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.05" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="76.650000000000006" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A4" s="68" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="85.8" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="113.25" customHeight="1" thickBot="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A6" s="71" t="s">
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-    </row>
-    <row r="7" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A7" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A8" s="55">
-        <v>1</v>
-      </c>
-      <c r="B8" s="56" t="s">
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A9" s="55">
-        <v>2</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A10" s="55">
-        <v>3</v>
-      </c>
-      <c r="B10" s="56" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A11" s="55">
-        <v>4</v>
-      </c>
-      <c r="B11" s="56" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A12" s="55">
-        <v>5</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A13" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-    </row>
-    <row r="14" spans="1:6" ht="75.599999999999994" thickBot="1">
-      <c r="A14" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:6" ht="135.6" thickBot="1">
-      <c r="A15" s="55">
-        <v>1</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-    </row>
-    <row r="16" spans="1:6" ht="90.6" thickBot="1">
-      <c r="A16" s="55">
-        <v>2</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-    </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" thickBot="1">
-      <c r="A17" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="61"/>
-    </row>
-    <row r="18" spans="1:6" ht="120.6" thickBot="1">
-      <c r="A18" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="195.6" thickBot="1">
-      <c r="A19" s="55">
-        <v>1</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="150.6" thickBot="1">
-      <c r="A20" s="55">
-        <v>2</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A21" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-    </row>
-    <row r="22" spans="1:6" ht="75.599999999999994" thickBot="1">
-      <c r="A22" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="58"/>
-    </row>
-    <row r="23" spans="1:6" ht="285.60000000000002" thickBot="1">
-      <c r="A23" s="55">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A24" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-    </row>
-    <row r="25" spans="1:6" ht="135.6" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A26" s="55">
-        <v>1</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="63">
-        <v>1</v>
-      </c>
-      <c r="D26" s="63">
-        <v>1</v>
-      </c>
-      <c r="E26" s="63">
-        <v>1</v>
-      </c>
-      <c r="F26" s="63"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A27" s="55">
-        <v>2</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="63">
-        <v>1</v>
-      </c>
-      <c r="D27" s="63">
-        <v>1</v>
-      </c>
-      <c r="E27" s="63">
-        <v>1</v>
-      </c>
-      <c r="F27" s="63"/>
-    </row>
-    <row r="28" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A28" s="55">
-        <v>3</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="63">
-        <v>1</v>
-      </c>
-      <c r="D28" s="63">
-        <v>1</v>
-      </c>
-      <c r="E28" s="63">
-        <v>1</v>
-      </c>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A29" s="55">
-        <v>4</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="63">
-        <v>1</v>
-      </c>
-      <c r="D29" s="63">
-        <v>1</v>
-      </c>
-      <c r="E29" s="63">
-        <v>1</v>
-      </c>
-      <c r="F29" s="63"/>
-    </row>
-    <row r="30" spans="1:6" ht="45.6" thickBot="1">
-      <c r="A30" s="55">
-        <v>5</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="63">
-        <v>1</v>
-      </c>
-      <c r="D30" s="63">
-        <v>1</v>
-      </c>
-      <c r="E30" s="63">
-        <v>1</v>
-      </c>
-      <c r="F30" s="63"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A31" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-    </row>
-    <row r="32" spans="1:6" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A32" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-    </row>
-    <row r="33" spans="1:6" ht="30.6" thickBot="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" spans="1:6" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="63">
-        <v>2</v>
-      </c>
-      <c r="D34" s="63">
-        <v>2</v>
-      </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5597,64 +5472,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -5688,7 +5563,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5704,7 +5579,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5720,7 +5595,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5736,7 +5611,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5752,19 +5627,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -5779,26 +5654,26 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="72.599999999999994" customHeight="1" thickBot="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6" ht="41.85" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -5810,20 +5685,20 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
@@ -5833,10 +5708,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -5848,17 +5723,17 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="45" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5866,29 +5741,29 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="54"/>
+      <c r="E20" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickBot="1">
       <c r="A22" s="7" t="s">
@@ -5912,7 +5787,7 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="20">
@@ -5928,7 +5803,7 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="20">
@@ -5941,14 +5816,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1">
       <c r="A26" s="16"/>
@@ -6059,24 +5934,24 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
@@ -6095,25 +5970,41 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22">
-        <v>2</v>
-      </c>
-      <c r="D35" s="27">
-        <v>2</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -6126,7 +6017,596 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F676198-3E8D-4C74-9F86-A5E83FFFA8FA}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="A14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" ht="54.6" customHeight="1" thickBot="1">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A18" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="54.6" customHeight="1" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="47.4" customHeight="1" thickBot="1">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1">
+      <c r="A22" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="20">
+        <v>45045</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="20">
+        <v>45038</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="A26" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="40"/>
+      <c r="B36" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A38" s="42"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A33:F33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\BaoCao\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618988C-56D2-483B-A637-BF7063D1F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Buoi1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Trang tính2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Buoi2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Buoi3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Buoi4" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Buoi5" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Buoi6" sheetId="7" r:id="rId10"/>
+    <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang tính2" sheetId="2" r:id="rId2"/>
+    <sheet name="Buoi2" sheetId="3" r:id="rId3"/>
+    <sheet name="Buoi3" sheetId="4" r:id="rId4"/>
+    <sheet name="Buoi4" sheetId="5" r:id="rId5"/>
+    <sheet name="Buoi5" sheetId="6" r:id="rId6"/>
+    <sheet name="Buoi6" sheetId="7" r:id="rId7"/>
+    <sheet name="Buoi7" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgu2EAAuyszAk3JTXCUNW36rjUpSQ=="/>
@@ -22,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="126">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -206,26 +216,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Tham khảo nguồn tài liệu trên w3school, </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Cambria"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
       </rPr>
       <t>reactjs.org</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>, youtube</t>
     </r>
@@ -272,17 +282,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Người chủ trì cuộc họp – chair meeting:</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Chu Quốc Khánh</t>
     </r>
@@ -302,18 +312,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Tìm hiểu trên W3Schools, youtube, </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Cambria"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
       </rPr>
       <t>reacjs.org</t>
     </r>
@@ -321,18 +331,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Tìm hiểu tài liệu tại </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Cambria"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
       </rPr>
       <t>https://legacy.reactjs.org/docs/getting-started.html</t>
     </r>
@@ -346,17 +356,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Người chủ trì cuộc họp – chair meeting:</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Nguyễn Duy Đại</t>
     </r>
@@ -477,84 +487,103 @@
   </si>
   <si>
     <t>Hoàn thành phần báo cáo</t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21h30 - 22:00 &gt;&lt; ngày 06/05/23&gt;</t>
+  </si>
+  <si>
+    <t>Trao đổi, nhận xét về phần code của thành viên Duy Đại</t>
+  </si>
+  <si>
+    <t>Hoàn thiện phần xem sản phẩm và phần thêm vào giỏ hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="4">
@@ -562,7 +591,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -578,99 +607,81 @@
     </fill>
   </fills>
   <borders count="33">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -681,23 +692,91 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -705,23 +784,30 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -729,6 +815,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -743,58 +830,87 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -803,30 +919,38 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -836,288 +960,206 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="82">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1307,601 +1349,619 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H990"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="3" width="32.43"/>
-    <col customWidth="1" min="4" max="4" width="30.71"/>
-    <col customWidth="1" min="5" max="5" width="60.43"/>
-    <col customWidth="1" min="6" max="6" width="47.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="18" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="27">
-        <v>45004.0</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="15">
+        <v>45004</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="13" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="30" t="s">
+      <c r="C30" s="18">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="C31" s="18">
+        <v>2</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="30" t="s">
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="18">
+        <v>2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="30" t="s">
+      <c r="C34" s="18">
+        <v>2</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="31" t="s">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="34" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="13" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="18">
+        <v>2</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2868,519 +2928,532 @@
     <mergeCell ref="C21:D21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E27"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.14"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
-    <col customWidth="1" min="3" max="3" width="24.86"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="5" width="42.0"/>
-    <col customWidth="1" min="6" max="6" width="92.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="92" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="40">
-        <v>45018.0</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="21">
+        <v>45018</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="13" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="C25" s="18">
+        <v>2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="18">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="34" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="13" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="C33" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23">
+        <v>2</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -4351,545 +4424,557 @@
     <mergeCell ref="A23:F23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C19"/>
-    <hyperlink r:id="rId2" ref="E19"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="2" max="3" width="20.0"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="31.29"/>
-    <col customWidth="1" min="6" max="6" width="47.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="24.0" customHeight="1">
-      <c r="A8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" ht="23.25" customHeight="1">
-      <c r="A12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" ht="39.0" customHeight="1">
-      <c r="A15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" ht="39" customHeight="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" ht="51.75" customHeight="1">
-      <c r="A16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" ht="36.0" customHeight="1">
-      <c r="A20" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:6" ht="36" customHeight="1">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" ht="53.25" customHeight="1">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:6" ht="53.25" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="40">
-        <v>45024.0</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="21">
+        <v>45024</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="40">
-        <v>45024.0</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="21">
+        <v>45024</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" ht="75.0" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="13" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6" ht="75" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" ht="42.75" customHeight="1">
-      <c r="A27" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C30" s="18">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="13" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23">
+        <v>1</v>
+      </c>
+      <c r="D35" s="23">
+        <v>3</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -5861,508 +5946,523 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.29"/>
-    <col customWidth="1" min="2" max="2" width="33.14"/>
-    <col customWidth="1" min="3" max="3" width="37.0"/>
-    <col customWidth="1" min="4" max="4" width="25.29"/>
-    <col customWidth="1" min="5" max="5" width="23.86"/>
-    <col customWidth="1" min="6" max="6" width="32.86"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="46" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="48" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="48" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="50" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="40">
-        <v>45038.0</v>
-      </c>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="21">
+        <v>45038</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="24" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="13" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="31" t="s">
+      <c r="C30" s="18">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="34" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23">
+        <v>2</v>
+      </c>
+      <c r="D34" s="23">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6385,536 +6485,550 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="3" max="3" width="31.29"/>
-    <col customWidth="1" min="4" max="4" width="32.71"/>
-    <col customWidth="1" min="5" max="5" width="40.71"/>
-    <col customWidth="1" min="6" max="6" width="32.29"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" ht="72.0" customHeight="1">
-      <c r="A15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" ht="72" customHeight="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" ht="41.25" customHeight="1">
-      <c r="A16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" ht="35.25" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:6" ht="33" customHeight="1">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" ht="46.5" customHeight="1">
-      <c r="A23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="52">
-        <v>45045.0</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="21">
+        <v>45045</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="55.5" customHeight="1">
-      <c r="A24" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B24" s="48" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="52">
-        <v>45036.0</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="21">
+        <v>45036</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" ht="36.0" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="13" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6" ht="36" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C30" s="18">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="13" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23">
+        <v>2</v>
+      </c>
+      <c r="D35" s="23">
+        <v>2</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -7886,528 +8000,545 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="24.29"/>
-    <col customWidth="1" min="5" max="5" width="29.43"/>
-    <col customWidth="1" min="6" max="6" width="26.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" customWidth="1"/>
+    <col min="5" max="5" width="49.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" ht="15.6">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="57" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="58"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="59" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="57" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="60" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="63" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="27">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="64" t="s">
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="27">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="63">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="27">
+        <v>4</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="63">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="64" t="s">
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="27">
+        <v>5</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="72" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="71"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="75" t="s">
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="71"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="64" t="s">
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="27">
+        <v>2</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" ht="23.25" customHeight="1">
-      <c r="A17" s="79" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="66"/>
+    </row>
+    <row r="17" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="80"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="72" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="81" t="s">
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="27">
+        <v>1</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="81" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="81" t="s">
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="27">
+        <v>2</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="81" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A21" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="72" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="83"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="81" t="s">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="27">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="84">
-        <v>45045.0</v>
-      </c>
-      <c r="D23" s="64" t="s">
+      <c r="C23" s="35">
+        <v>45045</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="85"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="B24" s="81" t="s">
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="27">
+        <v>2</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="84">
-        <v>45087.0</v>
-      </c>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="35">
+        <v>45087</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-    </row>
-    <row r="25" ht="29.25" customHeight="1">
-      <c r="A25" s="79" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A25" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="86"/>
-      <c r="B26" s="73" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="36"/>
+      <c r="B26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="64" t="s">
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="88"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="64" t="s">
+      <c r="C27" s="37">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="27">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="88"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="B29" s="64" t="s">
+      <c r="C28" s="37">
+        <v>1</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="27">
+        <v>3</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="87">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="88"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="63">
-        <v>4.0</v>
-      </c>
-      <c r="B30" s="64" t="s">
+      <c r="C29" s="37">
+        <v>2</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1</v>
+      </c>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="27">
+        <v>4</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="88"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="63">
-        <v>5.0</v>
-      </c>
-      <c r="B31" s="64" t="s">
+      <c r="C30" s="37">
+        <v>1</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6">
+      <c r="A31" s="27">
+        <v>5</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="87">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="87">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="87">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="88"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="89" t="s">
+      <c r="C31" s="37">
+        <v>2</v>
+      </c>
+      <c r="D31" s="37">
+        <v>2</v>
+      </c>
+      <c r="E31" s="37">
+        <v>2</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="90" t="s">
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="91"/>
-      <c r="B34" s="73" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="83"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="92"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="87">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="94">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="95"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37">
+        <v>2</v>
+      </c>
+      <c r="D35" s="37">
+        <v>2</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -8430,6 +8561,563 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E87FA8-D8DD-42D5-B69B-E158D455296F}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="27">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="27">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="27">
+        <v>4</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="27">
+        <v>5</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="27">
+        <v>2</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="66"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="27">
+        <v>1</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="27">
+        <v>2</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="27">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="35">
+        <v>45053</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="27">
+        <v>2</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="35">
+        <v>45087</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="36"/>
+      <c r="B26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="27">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="27">
+        <v>3</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1</v>
+      </c>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="27">
+        <v>4</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="37">
+        <v>2</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6">
+      <c r="A31" s="27">
+        <v>5</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="37">
+        <v>2</v>
+      </c>
+      <c r="D31" s="37">
+        <v>2</v>
+      </c>
+      <c r="E31" s="37">
+        <v>2</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37">
+        <v>1</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\BaoCao\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618988C-56D2-483B-A637-BF7063D1F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
@@ -21,6 +20,8 @@
     <sheet name="Buoi5" sheetId="6" r:id="rId6"/>
     <sheet name="Buoi6" sheetId="7" r:id="rId7"/>
     <sheet name="Buoi7" sheetId="8" r:id="rId8"/>
+    <sheet name="Buoi8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="133">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -497,11 +498,32 @@
   <si>
     <t>Hoàn thiện phần xem sản phẩm và phần thêm vào giỏ hàng</t>
   </si>
+  <si>
+    <t>Người chủ trì cuộc họp – chair meeting:  Nguyễn Đức Anh</t>
+  </si>
+  <si>
+    <t>21:00-21:15</t>
+  </si>
+  <si>
+    <t>21:15-21:30</t>
+  </si>
+  <si>
+    <t>Trao đổi, nhận xét nội dung phần code giao diện</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thiện công việc của tuần trước, hoàn thành phần thêm giỏ hàng của mỗi thành viên</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thiện công việc của tuần trước, hoàn thành phần giỏ hàng của mỗi thành viên</t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21h00 - 21:30 &gt;&lt; ngày 13/05/23&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
@@ -1072,11 +1094,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1091,56 +1134,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1374,64 +1396,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1525,14 +1547,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1547,10 +1569,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1583,10 +1605,10 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1601,10 +1623,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1619,10 +1641,10 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -1637,19 +1659,19 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1659,10 +1681,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1677,10 +1699,10 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1695,10 +1717,10 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1707,14 +1729,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1777,14 +1799,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="17"/>
@@ -1905,24 +1927,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -2906,16 +2928,6 @@
     <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A36:F36"/>
@@ -2926,17 +2938,39 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2951,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2968,64 +3002,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -3128,14 +3162,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3150,10 +3184,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3180,17 +3214,17 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -3200,10 +3234,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3221,21 +3255,21 @@
       <c r="C19" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3272,14 +3306,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="17"/>
@@ -3390,24 +3424,24 @@
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="7"/>
@@ -4406,11 +4440,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A30:F30"/>
@@ -4422,10 +4451,15 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4433,7 +4467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4449,64 +4483,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -4609,14 +4643,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -4631,10 +4665,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="39" customHeight="1">
       <c r="A15" s="1">
@@ -4649,8 +4683,8 @@
       <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1">
       <c r="A16" s="1">
@@ -4665,17 +4699,17 @@
       <c r="D16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -4685,10 +4719,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4703,10 +4737,10 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
@@ -4721,10 +4755,10 @@
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
@@ -4737,10 +4771,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
@@ -4797,14 +4831,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6" ht="75" customHeight="1">
       <c r="A26" s="17"/>
@@ -4915,24 +4949,24 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
@@ -5927,16 +5961,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5945,6 +5969,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5952,7 +5986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5971,64 +6005,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -6131,14 +6165,14 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -6153,10 +6187,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -6171,8 +6205,8 @@
       <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -6187,17 +6221,17 @@
       <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
@@ -6207,10 +6241,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -6225,10 +6259,10 @@
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>100</v>
       </c>
@@ -6243,10 +6277,10 @@
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>102</v>
       </c>
@@ -6255,14 +6289,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
@@ -6299,14 +6333,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17"/>
@@ -6417,24 +6451,24 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
@@ -6466,16 +6500,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -6484,13 +6508,23 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6507,64 +6541,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6667,14 +6701,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -6689,10 +6723,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="72" customHeight="1">
       <c r="A15" s="1">
@@ -6707,8 +6741,8 @@
       <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="41.25" customHeight="1">
       <c r="A16" s="1">
@@ -6723,17 +6757,17 @@
       <c r="D16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="35.25" customHeight="1">
@@ -6743,10 +6777,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -6761,10 +6795,10 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
@@ -6779,10 +6813,10 @@
       <c r="B20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6791,14 +6825,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6851,14 +6885,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1">
       <c r="A26" s="17"/>
@@ -6969,24 +7003,24 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="A34" s="7"/>
@@ -7981,16 +8015,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -7999,6 +8023,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8006,14 +8040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8027,64 +8061,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -8187,14 +8221,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -8209,10 +8243,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -8227,10 +8261,10 @@
       <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -8245,17 +8279,17 @@
       <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -8265,10 +8299,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -8283,10 +8317,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -8301,10 +8335,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -8313,14 +8347,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -8375,14 +8409,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -8496,21 +8530,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -8542,16 +8576,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -8560,17 +8584,27 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E87FA8-D8DD-42D5-B69B-E158D455296F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8584,64 +8618,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -8744,14 +8778,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -8766,10 +8800,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -8784,10 +8818,10 @@
       <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -8802,17 +8836,17 @@
       <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -8822,10 +8856,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -8840,10 +8874,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="68"/>
+      <c r="C19" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="74"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -8858,10 +8892,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -8870,14 +8904,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -8932,14 +8966,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -9053,21 +9087,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -9099,12 +9133,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -9117,6 +9145,569 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="27">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="27">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="27">
+        <v>4</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="27">
+        <v>5</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="74"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="74"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="27">
+        <v>2</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="27">
+        <v>1</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="27">
+        <v>2</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="27">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="35">
+        <v>45053</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="27">
+        <v>2</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="35">
+        <v>45087</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="36"/>
+      <c r="B26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>2</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="27">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="27">
+        <v>3</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1</v>
+      </c>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="27">
+        <v>4</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="37">
+        <v>2</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6">
+      <c r="A31" s="27">
+        <v>5</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="37">
+        <v>2</v>
+      </c>
+      <c r="D31" s="37">
+        <v>2</v>
+      </c>
+      <c r="E31" s="37">
+        <v>2</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37">
+        <v>1</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Buoi6" sheetId="7" r:id="rId7"/>
     <sheet name="Buoi7" sheetId="8" r:id="rId8"/>
     <sheet name="Buoi8" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Buoi9" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="136">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>Thời gian - time: &lt; khung giờ 21h00 - 21:30 &gt;&lt; ngày 13/05/23&gt;</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thiện công việc của tuần trước, hoàn thành phần chức năng thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21h00 - 21:30 &gt;&lt; ngày 22/05/23&gt;</t>
+  </si>
+  <si>
+    <t>Tiếp tục code chức năng thêm sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -1094,32 +1103,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1134,35 +1122,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,64 +1405,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1547,14 +1556,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1569,10 +1578,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1605,10 +1614,10 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1623,10 +1632,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1641,10 +1650,10 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -1659,19 +1668,19 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1681,10 +1690,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1699,10 +1708,10 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1717,10 +1726,10 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1729,14 +1738,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1799,14 +1808,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="17"/>
@@ -1927,24 +1936,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -2928,6 +2937,16 @@
     <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A36:F36"/>
@@ -2938,16 +2957,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1"/>
@@ -2959,12 +2968,557 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="95.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="58.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="27">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="27">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="27">
+        <v>4</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="27">
+        <v>5</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="27">
+        <v>2</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="66"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="27">
+        <v>1</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="27">
+        <v>2</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="27">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="35">
+        <v>45075</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="27">
+        <v>2</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="35">
+        <v>45106</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="36"/>
+      <c r="B26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="27">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="27">
+        <v>3</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1</v>
+      </c>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="27">
+        <v>4</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="37">
+        <v>2</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6">
+      <c r="A31" s="27">
+        <v>5</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="37">
+        <v>2</v>
+      </c>
+      <c r="D31" s="37">
+        <v>2</v>
+      </c>
+      <c r="E31" s="37">
+        <v>2</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37">
+        <v>1</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3002,64 +3556,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -3162,14 +3716,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3184,10 +3738,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3214,17 +3768,17 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -3234,10 +3788,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3255,21 +3809,21 @@
       <c r="C19" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3306,14 +3860,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="17"/>
@@ -3424,24 +3978,24 @@
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="7"/>
@@ -4440,6 +4994,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A30:F30"/>
@@ -4451,11 +5010,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1"/>
@@ -4483,64 +5037,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -4643,14 +5197,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -4665,10 +5219,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="39" customHeight="1">
       <c r="A15" s="1">
@@ -4683,8 +5237,8 @@
       <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1">
       <c r="A16" s="1">
@@ -4699,17 +5253,17 @@
       <c r="D16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -4719,10 +5273,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4737,10 +5291,10 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
@@ -4755,10 +5309,10 @@
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
@@ -4771,10 +5325,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
@@ -4831,14 +5385,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" ht="75" customHeight="1">
       <c r="A26" s="17"/>
@@ -4949,24 +5503,24 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
@@ -5961,6 +6515,16 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5969,16 +6533,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6005,64 +6559,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -6165,14 +6719,14 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -6187,10 +6741,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -6205,8 +6759,8 @@
       <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -6221,17 +6775,17 @@
       <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
@@ -6241,10 +6795,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -6259,10 +6813,10 @@
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="2" t="s">
         <v>100</v>
       </c>
@@ -6277,10 +6831,10 @@
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="2" t="s">
         <v>102</v>
       </c>
@@ -6289,14 +6843,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
@@ -6333,14 +6887,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17"/>
@@ -6451,24 +7005,24 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
@@ -6500,6 +7054,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -6508,16 +7072,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6527,7 +7081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6541,64 +7097,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -6701,14 +7257,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -6723,10 +7279,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="72" customHeight="1">
       <c r="A15" s="1">
@@ -6741,8 +7297,8 @@
       <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" ht="41.25" customHeight="1">
       <c r="A16" s="1">
@@ -6757,17 +7313,17 @@
       <c r="D16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="35.25" customHeight="1">
@@ -6777,10 +7333,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -6795,10 +7351,10 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
@@ -6813,10 +7369,10 @@
       <c r="B20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6825,14 +7381,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6885,14 +7441,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1">
       <c r="A26" s="17"/>
@@ -7003,24 +7559,24 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="A34" s="7"/>
@@ -8015,6 +8571,16 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -8023,16 +8589,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8047,7 +8603,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8061,64 +8617,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -8221,14 +8777,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -8243,10 +8799,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -8261,10 +8817,10 @@
       <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -8279,17 +8835,17 @@
       <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="71"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -8299,10 +8855,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -8317,10 +8873,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -8335,10 +8891,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -8347,14 +8903,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -8400,7 +8956,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="35">
-        <v>45087</v>
+        <v>45075</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>57</v>
@@ -8409,14 +8965,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -8530,21 +9086,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -8576,6 +9132,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -8584,16 +9150,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8603,8 +9159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8618,64 +9174,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -8778,14 +9334,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -8800,10 +9356,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -8818,10 +9374,10 @@
       <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -8836,17 +9392,17 @@
       <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="71"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -8856,10 +9412,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -8874,10 +9430,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -8892,10 +9448,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -8904,14 +9460,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -8939,7 +9495,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="35">
-        <v>45053</v>
+        <v>45075</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>57</v>
@@ -8957,7 +9513,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="35">
-        <v>45087</v>
+        <v>45075</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>57</v>
@@ -8966,14 +9522,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -9087,21 +9643,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -9133,6 +9689,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -9145,12 +9707,6 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9160,8 +9716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9175,64 +9731,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -9335,14 +9891,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -9357,10 +9913,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -9375,10 +9931,10 @@
       <c r="D15" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -9393,17 +9949,17 @@
       <c r="D16" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="71"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -9413,10 +9969,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -9431,10 +9987,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -9449,10 +10005,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -9461,14 +10017,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -9496,7 +10052,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="35">
-        <v>45053</v>
+        <v>45075</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>57</v>
@@ -9514,7 +10070,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="35">
-        <v>45087</v>
+        <v>45075</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>57</v>
@@ -9523,14 +10079,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -9644,21 +10200,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -9690,11 +10246,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -9702,12 +10259,11 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\TTCSN-GROUP10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\111\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29B9813-7497-48CD-861E-8C1255C4B26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
@@ -22,18 +23,19 @@
     <sheet name="Buoi7" sheetId="8" r:id="rId8"/>
     <sheet name="Buoi8" sheetId="9" r:id="rId9"/>
     <sheet name="Buoi9" sheetId="10" r:id="rId10"/>
+    <sheet name="Buoi10" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgu2EAAuyszAk3JTXCUNW36rjUpSQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgu2EAAuyszAk3JTXCUNW36rjUpSQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="143">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -528,20 +530,48 @@
   <si>
     <t>Tiếp tục code chức năng thêm sản phẩm</t>
   </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21h00 - 21:45 &gt;&lt; ngày 27/05/23&gt;</t>
+  </si>
+  <si>
+    <t>Trao đổi, nhận xét về chức năng Thêm sản phẩm, giao diện Đăng ký, Đăng nhập</t>
+  </si>
+  <si>
+    <t>Duyệt lại code, hoàn thiện báo cáo</t>
+  </si>
+  <si>
+    <t>Viết BTL</t>
+  </si>
+  <si>
+    <t>Hoàn thiện chương 3: Mô tả chi tiết thiết kế sản phẩm &amp; Chương 4: Tổng kết</t>
+  </si>
+  <si>
+    <t>Chia nội dung công việc cho từng thành viên</t>
+  </si>
+  <si>
+    <t>Hoàn thành phần nội dung BTL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,8 +646,28 @@
       <color rgb="FF1155CC"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,8 +686,20 @@
         <bgColor rgb="FF8496B0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8496B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -993,185 +1055,440 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1405,64 +1722,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1556,14 +1873,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1578,10 +1895,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1614,10 +1931,10 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1632,10 +1949,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1650,10 +1967,10 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -1668,19 +1985,19 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1690,10 +2007,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1708,10 +2025,10 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1726,10 +2043,10 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1738,14 +2055,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1808,14 +2125,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="17"/>
@@ -1936,24 +2253,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -2937,16 +3254,6 @@
     <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A36:F36"/>
@@ -2957,9 +3264,19 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2967,10 +3284,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2985,64 +3302,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -3145,14 +3462,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -3167,10 +3484,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -3185,10 +3502,10 @@
       <c r="D15" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -3203,17 +3520,17 @@
       <c r="D16" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -3223,10 +3540,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -3241,10 +3558,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -3259,10 +3576,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -3271,14 +3588,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -3333,14 +3650,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -3454,21 +3771,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -3500,17 +3817,537 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305379B-9B4C-4DA6-B58B-492B57C664ED}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A4" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A5" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A6" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="7" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A8" s="82">
+        <v>1</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2" thickBot="1">
+      <c r="A9" s="82">
+        <v>2</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A10" s="82">
+        <v>3</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.2" thickBot="1">
+      <c r="A11" s="82">
+        <v>4</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A12" s="82">
+        <v>5</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A13" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+    </row>
+    <row r="14" spans="1:6" ht="76.2" thickBot="1">
+      <c r="A14" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="106"/>
+    </row>
+    <row r="15" spans="1:6" ht="136.19999999999999" thickBot="1">
+      <c r="A15" s="82">
+        <v>1</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="108"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="89"/>
+    </row>
+    <row r="17" spans="1:6" ht="121.2" thickBot="1">
+      <c r="A17" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="106"/>
+      <c r="E17" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="121.2" thickBot="1">
+      <c r="A18" s="82">
+        <v>1</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="113"/>
+      <c r="E18" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="106.2" thickBot="1">
+      <c r="A19" s="82">
+        <v>2</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A20" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+    </row>
+    <row r="21" spans="1:6" ht="61.2" thickBot="1">
+      <c r="A21" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="86"/>
+    </row>
+    <row r="22" spans="1:6" ht="91.2" thickBot="1">
+      <c r="A22" s="82">
+        <v>1</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="90">
+        <v>44963</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A23" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
+    </row>
+    <row r="24" spans="1:6" ht="136.19999999999999" thickBot="1">
+      <c r="A24" s="91"/>
+      <c r="B24" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A25" s="82">
+        <v>1</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="92">
+        <v>1</v>
+      </c>
+      <c r="D25" s="92">
+        <v>2</v>
+      </c>
+      <c r="E25" s="92">
+        <v>1</v>
+      </c>
+      <c r="F25" s="86"/>
+    </row>
+    <row r="26" spans="1:6" ht="31.2" thickBot="1">
+      <c r="A26" s="82">
+        <v>2</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="92">
+        <v>1</v>
+      </c>
+      <c r="D26" s="92">
+        <v>1</v>
+      </c>
+      <c r="E26" s="92">
+        <v>1</v>
+      </c>
+      <c r="F26" s="86"/>
+    </row>
+    <row r="27" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A27" s="82">
+        <v>3</v>
+      </c>
+      <c r="B27" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="92">
+        <v>1</v>
+      </c>
+      <c r="D27" s="92">
+        <v>1</v>
+      </c>
+      <c r="E27" s="92">
+        <v>1</v>
+      </c>
+      <c r="F27" s="86"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.2" thickBot="1">
+      <c r="A28" s="82">
+        <v>4</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="92">
+        <v>2</v>
+      </c>
+      <c r="D28" s="92">
+        <v>1</v>
+      </c>
+      <c r="E28" s="92">
+        <v>1</v>
+      </c>
+      <c r="F28" s="86"/>
+    </row>
+    <row r="29" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A29" s="82">
+        <v>5</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="92">
+        <v>2</v>
+      </c>
+      <c r="D29" s="92">
+        <v>2</v>
+      </c>
+      <c r="E29" s="92">
+        <v>2</v>
+      </c>
+      <c r="F29" s="86"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A30" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A31" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.2" thickBot="1">
+      <c r="A32" s="91"/>
+      <c r="B32" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="86"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A33" s="91"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="92">
+        <v>1</v>
+      </c>
+      <c r="D33" s="92">
+        <v>3</v>
+      </c>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -3520,11 +4357,12 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3539,7 +4377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3556,64 +4394,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -3716,14 +4554,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3738,10 +4576,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3768,17 +4606,17 @@
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -3788,10 +4626,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3809,21 +4647,21 @@
       <c r="C19" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3860,14 +4698,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="17"/>
@@ -3978,24 +4816,24 @@
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="7"/>
@@ -4994,11 +5832,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A30:F30"/>
@@ -5010,10 +5843,15 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5021,7 +5859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5037,64 +5875,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -5197,14 +6035,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -5219,10 +6057,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="39" customHeight="1">
       <c r="A15" s="1">
@@ -5237,8 +6075,8 @@
       <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1">
       <c r="A16" s="1">
@@ -5253,17 +6091,17 @@
       <c r="D16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -5273,10 +6111,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -5291,10 +6129,10 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
@@ -5309,10 +6147,10 @@
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5325,10 +6163,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5385,14 +6223,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6" ht="75" customHeight="1">
       <c r="A26" s="17"/>
@@ -5503,24 +6341,24 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
@@ -6515,16 +7353,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -6533,6 +7361,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6540,7 +7378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6559,64 +7397,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -6719,14 +7557,14 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -6741,10 +7579,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -6759,8 +7597,8 @@
       <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -6775,17 +7613,17 @@
       <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
@@ -6795,10 +7633,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -6813,10 +7651,10 @@
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>100</v>
       </c>
@@ -6831,10 +7669,10 @@
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>102</v>
       </c>
@@ -6843,14 +7681,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
@@ -6887,14 +7725,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17"/>
@@ -7005,24 +7843,24 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
@@ -7054,16 +7892,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -7072,13 +7900,23 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -7097,64 +7935,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -7257,14 +8095,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -7279,10 +8117,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="72" customHeight="1">
       <c r="A15" s="1">
@@ -7297,8 +8135,8 @@
       <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="41.25" customHeight="1">
       <c r="A16" s="1">
@@ -7313,17 +8151,17 @@
       <c r="D16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="35.25" customHeight="1">
@@ -7333,10 +8171,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -7351,10 +8189,10 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
@@ -7369,10 +8207,10 @@
       <c r="B20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7381,14 +8219,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -7441,14 +8279,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1">
       <c r="A26" s="17"/>
@@ -7559,24 +8397,24 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="A34" s="7"/>
@@ -8571,16 +9409,6 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -8589,6 +9417,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8596,7 +9434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -8617,64 +9455,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -8777,14 +9615,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -8799,10 +9637,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -8817,10 +9655,10 @@
       <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -8835,17 +9673,17 @@
       <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -8855,10 +9693,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -8873,10 +9711,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -8891,10 +9729,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -8903,14 +9741,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -8965,14 +9803,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -9086,21 +9924,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -9132,16 +9970,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -9150,13 +9978,23 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -9174,64 +10012,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -9334,14 +10172,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -9356,10 +10194,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -9374,10 +10212,10 @@
       <c r="D15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -9392,17 +10230,17 @@
       <c r="D16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -9412,10 +10250,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -9430,10 +10268,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -9448,10 +10286,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -9460,14 +10298,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -9522,14 +10360,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -9643,21 +10481,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -9689,12 +10527,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -9707,13 +10539,19 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -9731,64 +10569,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="15.6">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="27" t="s">
@@ -9891,14 +10729,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="32" t="s">
@@ -9913,10 +10751,10 @@
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="27">
@@ -9931,10 +10769,10 @@
       <c r="D15" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="27">
@@ -9949,17 +10787,17 @@
       <c r="D16" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -9969,10 +10807,10 @@
       <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
@@ -9987,10 +10825,10 @@
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
@@ -10005,10 +10843,10 @@
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
@@ -10017,14 +10855,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="32" t="s">
@@ -10079,14 +10917,14 @@
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="36"/>
@@ -10200,21 +11038,21 @@
       <c r="A32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="32"/>
@@ -10246,12 +11084,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -10264,6 +11096,12 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
